--- a/soberano/test_cases/warehouse_disable_test_cases.xlsx
+++ b/soberano/test_cases/warehouse_disable_test_cases.xlsx
@@ -28,22 +28,22 @@
     <t xml:space="preserve">Notes \ Field</t>
   </si>
   <si>
-    <t xml:space="preserve">User1 is allowed to disable warehouse mw10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User2 is allowed to disable warehouse mw9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User3 is allowed to disable warehouse mw8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User4 is NOT allowed to disable warehouse mw6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User5 is NOT allowed to disable warehouse mw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User6 is allowed to disable warehouse mw6</t>
+    <t xml:space="preserve">User1 is allowed to disable warehouse mw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User2 is allowed to disable warehouse mw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User3 is allowed to disable warehouse mw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User4 is NOT allowed to disable warehouse mw9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User5 is NOT allowed to disable warehouse mw10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User6 is allowed to disable warehouse mw4</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
